--- a/inputs/odias_params_new.xlsx
+++ b/inputs/odias_params_new.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmdnkr\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96DD3A3-7DDF-4F38-BFBB-B3C2BEA33AF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A010C26B-970E-483F-AF53-2EBD7B04E534}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="3465" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="13SEP24" sheetId="3" r:id="rId1"/>
+    <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>fname</t>
   </si>
@@ -91,6 +91,24 @@
   </si>
   <si>
     <t>-.</t>
+  </si>
+  <si>
+    <t>incld</t>
+  </si>
+  <si>
+    <t>2024-09-13_215555_SMPS</t>
+  </si>
+  <si>
+    <t>2024-09-13_195657_SMPS</t>
+  </si>
+  <si>
+    <t>D:\HN\AUG24Onward\Thesis-03Dec24\SMPS-HN-Desktop\Data\Inverted</t>
+  </si>
+  <si>
+    <t>f_add_tsi_inv</t>
+  </si>
+  <si>
+    <t>f_name_tsi_inv</t>
   </si>
 </sst>
 </file>
@@ -424,26 +442,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20AA5E3-18D8-4B5E-AC08-AB63587E2B83}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,26 +476,35 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -488,212 +517,277 @@
       <c r="D2" s="4">
         <v>9</v>
       </c>
-      <c r="E2" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>15</v>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E3" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>15</v>
+      <c r="L2">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H3" s="1" t="s">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E4" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>15</v>
+      <c r="L3">
+        <v>23</v>
+      </c>
+      <c r="M3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H4" s="1" t="s">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E5" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>15</v>
+      <c r="L4">
+        <v>23</v>
+      </c>
+      <c r="M4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="3" t="s">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E6" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>15</v>
+      <c r="L5">
+        <v>23</v>
+      </c>
+      <c r="M5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H6" s="1" t="s">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>15</v>
+      <c r="L6">
+        <v>23</v>
+      </c>
+      <c r="M6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H7" s="1" t="s">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E8" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>15</v>
+      <c r="L7">
+        <v>23</v>
+      </c>
+      <c r="M7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H8" s="1" t="s">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F9" s="1">
-        <v>15</v>
+      <c r="L8">
+        <v>23</v>
+      </c>
+      <c r="M8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H9" s="1" t="s">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E10" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F10" s="1">
-        <v>15</v>
+      <c r="M9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="1" t="s">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="2"/>
+      <c r="M10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E12" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E13" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputs/odias_params_new.xlsx
+++ b/inputs/odias_params_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmdnkr\Documents\GitHub\odias\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A010C26B-970E-483F-AF53-2EBD7B04E534}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB84C0D-DF40-4145-A674-DEE1749E59A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="3465" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="3" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>dma_params_new</t>
   </si>
   <si>
-    <t>13SEP24</t>
-  </si>
-  <si>
     <t>#C96868</t>
   </si>
   <si>
@@ -102,13 +99,16 @@
     <t>2024-09-13_195657_SMPS</t>
   </si>
   <si>
-    <t>D:\HN\AUG24Onward\Thesis-03Dec24\SMPS-HN-Desktop\Data\Inverted</t>
-  </si>
-  <si>
     <t>f_add_tsi_inv</t>
   </si>
   <si>
     <t>f_name_tsi_inv</t>
+  </si>
+  <si>
+    <t>13SEP24_SWEEP_ON_FUEL</t>
+  </si>
+  <si>
+    <t>D:\Hamed\CND\PhD\Experiments\PFA-RH122\PFA results\SMPS\SMPS-HN-Desktop-DEC24\Inverted</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,10 +477,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -495,13 +495,13 @@
         <v>6</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -509,19 +509,19 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4">
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2">
         <v>5.0000000000000001E-4</v>
@@ -533,10 +533,10 @@
         <v>1000</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2">
         <v>23</v>
@@ -548,7 +548,7 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2">
         <v>5.0000000000000001E-4</v>
@@ -560,10 +560,10 @@
         <v>1000</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3">
         <v>23</v>
@@ -575,7 +575,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2">
         <v>5.0000000000000001E-4</v>
@@ -587,10 +587,10 @@
         <v>1000</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L4">
         <v>23</v>
@@ -602,7 +602,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2">
         <v>5.0000000000000001E-4</v>
@@ -614,10 +614,10 @@
         <v>1000</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5">
         <v>23</v>
@@ -629,7 +629,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2">
         <v>5.0000000000000001E-4</v>
@@ -641,10 +641,10 @@
         <v>1000</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6">
         <v>23</v>
@@ -656,7 +656,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2">
         <v>5.0000000000000001E-4</v>
@@ -668,10 +668,10 @@
         <v>1000</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7">
         <v>23</v>
@@ -683,7 +683,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="2">
         <v>5.0000000000000001E-4</v>
@@ -695,10 +695,10 @@
         <v>1000</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L8">
         <v>23</v>
@@ -710,7 +710,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2">
         <v>5.0000000000000001E-4</v>
@@ -722,10 +722,10 @@
         <v>1000</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L9">
         <v>19</v>
@@ -737,7 +737,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2">
         <v>5.0000000000000001E-4</v>
@@ -749,10 +749,10 @@
         <v>1000</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L10">
         <v>19</v>

--- a/inputs/odias_params_new.xlsx
+++ b/inputs/odias_params_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB84C0D-DF40-4145-A674-DEE1749E59A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216D52DC-0F4E-459D-967F-AA507D4667FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="3" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +731,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">

--- a/inputs/odias_params_new.xlsx
+++ b/inputs/odias_params_new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmdnkr\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216D52DC-0F4E-459D-967F-AA507D4667FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7620CE51-01C1-4F3F-97EE-3A35470EAE0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
     <t>13SEP24_SWEEP_ON_FUEL</t>
   </si>
   <si>
-    <t>D:\Hamed\CND\PhD\Experiments\PFA-RH122\PFA results\SMPS\SMPS-HN-Desktop-DEC24\Inverted</t>
+    <t>D:\HN\AUG24Onward\Thesis-03Dec24\SMPS-HN-Desktop\Data\Inverted</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/inputs/odias_params_new.xlsx
+++ b/inputs/odias_params_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmdnkr\Documents\GitHub\odias\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7620CE51-01C1-4F3F-97EE-3A35470EAE0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B3B19B-B13B-45B2-B7B8-03C57421E58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="3" r:id="rId1"/>
@@ -108,7 +108,7 @@
     <t>13SEP24_SWEEP_ON_FUEL</t>
   </si>
   <si>
-    <t>D:\HN\AUG24Onward\Thesis-03Dec24\SMPS-HN-Desktop\Data\Inverted</t>
+    <t>D:\Hamed\CND\PhD\Experiments\PFA-RH122\PFA results\SMPS\SMPS-HN-Desktop-DEC24\Inverted</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/inputs/odias_params_new.xlsx
+++ b/inputs/odias_params_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B3B19B-B13B-45B2-B7B8-03C57421E58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9DBB3F-7FEA-4CB4-B8BB-1AFBC5C48030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>fname</t>
   </si>
@@ -99,16 +99,22 @@
     <t>2024-09-13_195657_SMPS</t>
   </si>
   <si>
-    <t>f_add_tsi_inv</t>
-  </si>
-  <si>
-    <t>f_name_tsi_inv</t>
-  </si>
-  <si>
     <t>13SEP24_SWEEP_ON_FUEL</t>
   </si>
   <si>
-    <t>D:\Hamed\CND\PhD\Experiments\PFA-RH122\PFA results\SMPS\SMPS-HN-Desktop-DEC24\Inverted</t>
+    <t>D:\Hamed\CND\PhD\Experiments\PFA-RH122\PFA results\SMPS\SMPS-HN-Desktop-DEC24\Data\Inverted</t>
+  </si>
+  <si>
+    <t>D:\Hamed\CND\PhD\Experiments\PFA-RH122\PFA results\SMPS\SMPS-HN-Desktop-DEC24\Data\Non-inverted</t>
+  </si>
+  <si>
+    <t>fname_tsi</t>
+  </si>
+  <si>
+    <t>fdir_tsi_inv</t>
+  </si>
+  <si>
+    <t>fdir_tsi_noninv</t>
   </si>
 </sst>
 </file>
@@ -442,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20AA5E3-18D8-4B5E-AC08-AB63587E2B83}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,16 +460,17 @@
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="10.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,39 +484,42 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -518,276 +528,279 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H2" s="1">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2">
+        <v>26</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2">
         <v>1000</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L2">
-        <v>23</v>
-      </c>
-      <c r="M2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H3" s="1">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="M2">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2">
         <v>1000</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L3">
-        <v>23</v>
-      </c>
-      <c r="M3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H4" s="1">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="M3">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2">
         <v>1000</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L4">
-        <v>23</v>
-      </c>
-      <c r="M4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H5" s="1">
-        <v>15</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="M4">
+        <v>23</v>
+      </c>
+      <c r="N4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2">
         <v>1000</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L5">
-        <v>23</v>
-      </c>
-      <c r="M5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H6" s="1">
-        <v>15</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="M5">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
         <v>1000</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L6">
-        <v>23</v>
-      </c>
-      <c r="M6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H7" s="1">
-        <v>15</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="M6">
+        <v>23</v>
+      </c>
+      <c r="N6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>15</v>
+      </c>
+      <c r="J7" s="2">
         <v>1000</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L7">
-        <v>23</v>
-      </c>
-      <c r="M7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H8" s="1">
-        <v>15</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="M7">
+        <v>23</v>
+      </c>
+      <c r="N7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2">
         <v>1000</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L8">
-        <v>23</v>
-      </c>
-      <c r="M8" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
+      <c r="M8">
+        <v>23</v>
+      </c>
+      <c r="N8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H9" s="1">
-        <v>15</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="H9" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I9" s="1">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2">
         <v>1000</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>19</v>
       </c>
-      <c r="M9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
+      <c r="N9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H10" s="1">
-        <v>15</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="H10" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>15</v>
+      </c>
+      <c r="J10" s="2">
         <v>1000</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>19</v>
       </c>
-      <c r="M10" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="N10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="2"/>
+      <c r="J17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputs/odias_params_new.xlsx
+++ b/inputs/odias_params_new.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9DBB3F-7FEA-4CB4-B8BB-1AFBC5C48030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201946EF-8756-4ADD-9080-2675BB0E9FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="3" r:id="rId1"/>
+    <sheet name="23JUL24_SWEEP_ON_AIR" sheetId="5" r:id="rId2"/>
+    <sheet name="20JUL24_SWEEP_ON_NITROGEN" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="59">
   <si>
     <t>fname</t>
   </si>
@@ -115,6 +117,93 @@
   </si>
   <si>
     <t>fdir_tsi_noninv</t>
+  </si>
+  <si>
+    <t>#FFCCEA</t>
+  </si>
+  <si>
+    <t>23JUL24_SWEEP_ON_AIR</t>
+  </si>
+  <si>
+    <t>DMA_PARAMS_new</t>
+  </si>
+  <si>
+    <t>D:\Hamed\CND\PhD\Experiments\PFA-RH122\PFA results\SMPS\SMPS_laptop_datafiles_DEC24\Data\Inverted</t>
+  </si>
+  <si>
+    <t>D:\Hamed\CND\PhD\Experiments\PFA-RH122\PFA results\SMPS\SMPS_laptop_datafiles_DEC24\Data\Non-inverted</t>
+  </si>
+  <si>
+    <t>DMA_PARAMS_NEW</t>
+  </si>
+  <si>
+    <t>20JUL24_SWEEP_ON_NITROGEN</t>
+  </si>
+  <si>
+    <t>odias_labels_New</t>
+  </si>
+  <si>
+    <t>2024-07-23_105221_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-23_114958_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-23_143207_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-23_180812_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-23_155349_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-23_193542_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-23_145054_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-23_183014_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-23_161641_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-23_195749_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-23_150820_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-23_185212_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-23_164902_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-23_201626_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-20_210133_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-20_213658_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-20_224040_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-20_222608_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-20_230642_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-20_232313_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-20_234336_SMPS</t>
   </si>
 </sst>
 </file>
@@ -450,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20AA5E3-18D8-4B5E-AC08-AB63587E2B83}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,14 +549,15 @@
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
     <col min="9" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="10.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -805,4 +895,808 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069A6CBD-9180-4207-8C39-A2C64C8EF28F}">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="10.5703125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+      <c r="G3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3">
+        <v>19</v>
+      </c>
+      <c r="N3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+      <c r="G4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4">
+        <v>19</v>
+      </c>
+      <c r="N4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+      <c r="G5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5">
+        <v>19</v>
+      </c>
+      <c r="N5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+      <c r="G6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6">
+        <v>19</v>
+      </c>
+      <c r="N6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+      <c r="G7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>15</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7">
+        <v>19</v>
+      </c>
+      <c r="N7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+      <c r="G8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>12</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8">
+        <v>19</v>
+      </c>
+      <c r="N8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+      <c r="G9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I9" s="1">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9">
+        <v>19</v>
+      </c>
+      <c r="N9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+      <c r="G10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>15</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10">
+        <v>19</v>
+      </c>
+      <c r="N10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+      <c r="G11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>15</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <v>19</v>
+      </c>
+      <c r="N11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+      <c r="G12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>19</v>
+      </c>
+      <c r="N12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+      <c r="G13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I13" s="1">
+        <v>15</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13">
+        <v>19</v>
+      </c>
+      <c r="N13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="2"/>
+      <c r="G14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I14" s="1">
+        <v>15</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14">
+        <v>19</v>
+      </c>
+      <c r="N14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E15" s="2"/>
+      <c r="G15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I15" s="1">
+        <v>15</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15">
+        <v>19</v>
+      </c>
+      <c r="N15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
+      <c r="G16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I16" s="1">
+        <v>12</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <v>19</v>
+      </c>
+      <c r="N16" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
+      <c r="G17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I17" s="1">
+        <v>15</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <v>19</v>
+      </c>
+      <c r="N17" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5E4505-E9C8-42A1-8718-1B515BF5CEF0}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="10.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1500</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+      <c r="G3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1500</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1">
+        <v>19</v>
+      </c>
+      <c r="N3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+      <c r="G4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1500</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1">
+        <v>19</v>
+      </c>
+      <c r="N4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+      <c r="G5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1500</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1">
+        <v>19</v>
+      </c>
+      <c r="N5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+      <c r="G6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1500</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="1">
+        <v>19</v>
+      </c>
+      <c r="N6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+      <c r="G7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>15</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1500</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="1">
+        <v>19</v>
+      </c>
+      <c r="N7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+      <c r="G8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1500</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="1">
+        <v>19</v>
+      </c>
+      <c r="N8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+      <c r="L9" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inputs/odias_params_new.xlsx
+++ b/inputs/odias_params_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201946EF-8756-4ADD-9080-2675BB0E9FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D700137-D97C-41F7-959F-386DF02A077E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="60">
   <si>
     <t>fname</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>2024-07-20_234336_SMPS</t>
+  </si>
+  <si>
+    <t>#1F509A</t>
   </si>
 </sst>
 </file>
@@ -539,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20AA5E3-18D8-4B5E-AC08-AB63587E2B83}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,7 +774,7 @@
         <v>1000</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>19</v>
@@ -852,7 +855,7 @@
         <v>1000</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>20</v>
@@ -901,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069A6CBD-9180-4207-8C39-A2C64C8EF28F}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,10 +1026,10 @@
         <v>1000</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3">
         <v>19</v>
@@ -1050,9 +1053,9 @@
         <v>1000</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="M4">
@@ -1077,10 +1080,10 @@
         <v>1000</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M5">
         <v>19</v>
@@ -1104,9 +1107,9 @@
         <v>1000</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="M6">
@@ -1131,10 +1134,10 @@
         <v>1000</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M7">
         <v>19</v>
@@ -1152,15 +1155,15 @@
         <v>1E-4</v>
       </c>
       <c r="I8" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J8" s="2">
         <v>1000</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="M8">
@@ -1185,10 +1188,10 @@
         <v>1000</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M9">
         <v>19</v>
@@ -1212,10 +1215,10 @@
         <v>1000</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="M10">
         <v>19</v>
@@ -1239,7 +1242,7 @@
         <v>1000</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>20</v>
@@ -1260,16 +1263,16 @@
         <v>1E-4</v>
       </c>
       <c r="I12" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J12" s="2">
         <v>1000</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>20</v>
+        <v>59</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="M12">
         <v>19</v>
@@ -1293,7 +1296,7 @@
         <v>1000</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>20</v>
@@ -1320,10 +1323,10 @@
         <v>1000</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="M14">
         <v>19</v>
@@ -1347,7 +1350,7 @@
         <v>1000</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>20</v>
@@ -1368,16 +1371,16 @@
         <v>1E-4</v>
       </c>
       <c r="I16" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J16" s="2">
         <v>1000</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="M16">
         <v>19</v>
@@ -1422,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5E4505-E9C8-42A1-8718-1B515BF5CEF0}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,7 +1518,7 @@
         <v>15</v>
       </c>
       <c r="J2" s="2">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>9</v>
@@ -1542,7 +1545,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="2">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>16</v>
@@ -1569,7 +1572,7 @@
         <v>15</v>
       </c>
       <c r="J4" s="2">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>10</v>
@@ -1596,7 +1599,7 @@
         <v>15</v>
       </c>
       <c r="J5" s="2">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>14</v>
@@ -1623,7 +1626,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="2">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>13</v>
@@ -1635,7 +1638,7 @@
         <v>19</v>
       </c>
       <c r="N6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1650,7 +1653,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="2">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>11</v>
@@ -1662,7 +1665,7 @@
         <v>19</v>
       </c>
       <c r="N7" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1677,7 +1680,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="2">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>12</v>
@@ -1689,7 +1692,7 @@
         <v>19</v>
       </c>
       <c r="N8" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">

--- a/inputs/odias_params_new.xlsx
+++ b/inputs/odias_params_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D700137-D97C-41F7-959F-386DF02A077E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6C82B9-02B4-4DBC-B47E-0DD5462D075B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="62">
   <si>
     <t>fname</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>#1F509A</t>
+  </si>
+  <si>
+    <t>lambda_tk2</t>
+  </si>
+  <si>
+    <t>lambda_tk22</t>
   </si>
 </sst>
 </file>
@@ -540,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20AA5E3-18D8-4B5E-AC08-AB63587E2B83}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,15 +561,15 @@
     <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="1" customWidth="1"/>
     <col min="7" max="7" width="26" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="10.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,25 +595,31 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -632,26 +644,32 @@
       <c r="H2" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I2" s="1">
-        <v>15</v>
+      <c r="I2" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2">
+      <c r="N2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2">
         <v>23</v>
       </c>
-      <c r="N2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
         <v>23</v>
@@ -659,26 +677,32 @@
       <c r="H3" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I3" s="1">
-        <v>15</v>
+      <c r="I3" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K3" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3">
+      <c r="N3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3">
         <v>23</v>
       </c>
-      <c r="N3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
         <v>23</v>
@@ -686,26 +710,32 @@
       <c r="H4" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I4" s="1">
-        <v>15</v>
+      <c r="I4" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K4" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4">
+      <c r="N4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4">
         <v>23</v>
       </c>
-      <c r="N4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
         <v>23</v>
@@ -713,26 +743,32 @@
       <c r="H5" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I5" s="1">
-        <v>15</v>
+      <c r="I5" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K5" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5">
+      <c r="N5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5">
         <v>23</v>
       </c>
-      <c r="N5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
         <v>23</v>
@@ -740,26 +776,32 @@
       <c r="H6" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I6" s="1">
-        <v>15</v>
+      <c r="I6" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K6" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6">
+      <c r="N6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6">
         <v>23</v>
       </c>
-      <c r="N6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
         <v>23</v>
@@ -767,26 +809,32 @@
       <c r="H7" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I7" s="1">
-        <v>15</v>
+      <c r="I7" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K7" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7">
+      <c r="N7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7">
         <v>23</v>
       </c>
-      <c r="N7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
         <v>23</v>
@@ -794,26 +842,32 @@
       <c r="H8" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I8" s="1">
-        <v>15</v>
+      <c r="I8" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K8" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8">
+      <c r="N8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8">
         <v>23</v>
       </c>
-      <c r="N8" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
         <v>22</v>
@@ -821,26 +875,32 @@
       <c r="H9" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I9" s="1">
-        <v>15</v>
+      <c r="I9" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K9" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M9">
-        <v>19</v>
-      </c>
-      <c r="N9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>19</v>
+      </c>
+      <c r="P9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
         <v>22</v>
@@ -848,52 +908,72 @@
       <c r="H10" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I10" s="1">
-        <v>15</v>
+      <c r="I10" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K10" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M10">
-        <v>19</v>
-      </c>
-      <c r="N10" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>19</v>
+      </c>
+      <c r="P10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
+      <c r="L17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -902,10 +982,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069A6CBD-9180-4207-8C39-A2C64C8EF28F}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,13 +997,13 @@
     <col min="5" max="5" width="25.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="27.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="10.5703125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="10.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -949,25 +1029,31 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -992,26 +1078,32 @@
       <c r="H2" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I2" s="1">
-        <v>15</v>
+      <c r="I2" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E3" s="2"/>
       <c r="G3" s="5" t="s">
         <v>38</v>
@@ -1019,26 +1111,32 @@
       <c r="H3" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I3" s="1">
-        <v>15</v>
+      <c r="I3" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K3" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M3">
-        <v>19</v>
-      </c>
-      <c r="N3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
       <c r="G4" s="5" t="s">
         <v>39</v>
@@ -1046,26 +1144,32 @@
       <c r="H4" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I4" s="1">
-        <v>15</v>
+      <c r="I4" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K4" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4">
-        <v>19</v>
-      </c>
-      <c r="N4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4">
+        <v>19</v>
+      </c>
+      <c r="P4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E5" s="2"/>
       <c r="G5" s="5" t="s">
         <v>39</v>
@@ -1073,26 +1177,32 @@
       <c r="H5" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I5" s="1">
-        <v>15</v>
+      <c r="I5" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K5" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M5">
-        <v>19</v>
-      </c>
-      <c r="N5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>19</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E6" s="2"/>
       <c r="G6" s="5" t="s">
         <v>40</v>
@@ -1100,26 +1210,32 @@
       <c r="H6" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I6" s="1">
-        <v>15</v>
+      <c r="I6" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K6" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6">
-        <v>19</v>
-      </c>
-      <c r="N6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <v>19</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E7" s="2"/>
       <c r="G7" s="5" t="s">
         <v>41</v>
@@ -1127,26 +1243,32 @@
       <c r="H7" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I7" s="1">
-        <v>15</v>
+      <c r="I7" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K7" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M7">
-        <v>19</v>
-      </c>
-      <c r="N7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>19</v>
+      </c>
+      <c r="P7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E8" s="2"/>
       <c r="G8" s="5" t="s">
         <v>42</v>
@@ -1154,26 +1276,32 @@
       <c r="H8" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I8" s="1">
-        <v>15</v>
+      <c r="I8" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K8" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8">
-        <v>19</v>
-      </c>
-      <c r="N8" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8">
+        <v>19</v>
+      </c>
+      <c r="P8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E9" s="2"/>
       <c r="G9" s="5" t="s">
         <v>43</v>
@@ -1181,26 +1309,32 @@
       <c r="H9" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I9" s="1">
-        <v>15</v>
+      <c r="I9" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K9" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M9">
-        <v>19</v>
-      </c>
-      <c r="N9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>19</v>
+      </c>
+      <c r="P9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E10" s="2"/>
       <c r="G10" s="5" t="s">
         <v>44</v>
@@ -1208,26 +1342,32 @@
       <c r="H10" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I10" s="1">
-        <v>15</v>
+      <c r="I10" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K10" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10">
-        <v>19</v>
-      </c>
-      <c r="N10" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10">
+        <v>19</v>
+      </c>
+      <c r="P10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
       <c r="G11" s="5" t="s">
         <v>45</v>
@@ -1235,26 +1375,32 @@
       <c r="H11" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I11" s="1">
-        <v>15</v>
+      <c r="I11" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K11" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M11">
-        <v>19</v>
-      </c>
-      <c r="N11" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>19</v>
+      </c>
+      <c r="P11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E12" s="2"/>
       <c r="G12" s="5" t="s">
         <v>46</v>
@@ -1262,26 +1408,32 @@
       <c r="H12" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I12" s="1">
-        <v>15</v>
+      <c r="I12" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K12" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12">
-        <v>19</v>
-      </c>
-      <c r="N12" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>19</v>
+      </c>
+      <c r="P12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E13" s="2"/>
       <c r="G13" s="5" t="s">
         <v>47</v>
@@ -1289,26 +1441,32 @@
       <c r="H13" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I13" s="1">
-        <v>15</v>
+      <c r="I13" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J13" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K13" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K13" s="1">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M13">
-        <v>19</v>
-      </c>
-      <c r="N13" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>19</v>
+      </c>
+      <c r="P13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E14" s="2"/>
       <c r="G14" s="5" t="s">
         <v>48</v>
@@ -1316,26 +1474,32 @@
       <c r="H14" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I14" s="1">
-        <v>15</v>
+      <c r="I14" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J14" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K14" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K14" s="1">
+        <v>15</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14">
-        <v>19</v>
-      </c>
-      <c r="N14" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14">
+        <v>19</v>
+      </c>
+      <c r="P14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E15" s="2"/>
       <c r="G15" s="5" t="s">
         <v>49</v>
@@ -1343,26 +1507,32 @@
       <c r="H15" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I15" s="1">
-        <v>15</v>
+      <c r="I15" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J15" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K15" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M15">
-        <v>19</v>
-      </c>
-      <c r="N15" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>19</v>
+      </c>
+      <c r="P15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E16" s="2"/>
       <c r="G16" s="5" t="s">
         <v>50</v>
@@ -1370,26 +1540,32 @@
       <c r="H16" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I16" s="1">
-        <v>15</v>
+      <c r="I16" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J16" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K16" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16">
-        <v>19</v>
-      </c>
-      <c r="N16" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="N16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16">
+        <v>19</v>
+      </c>
+      <c r="P16" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E17" s="2"/>
       <c r="G17" s="5" t="s">
         <v>51</v>
@@ -1397,22 +1573,28 @@
       <c r="H17" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I17" s="1">
-        <v>15</v>
+      <c r="I17" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J17" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K17" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K17" s="1">
+        <v>15</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M17">
-        <v>19</v>
-      </c>
-      <c r="N17" s="1" t="b">
+      <c r="O17">
+        <v>19</v>
+      </c>
+      <c r="P17" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1423,10 +1605,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5E4505-E9C8-42A1-8718-1B515BF5CEF0}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,14 +1620,14 @@
     <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="10.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="10" width="13.5703125" style="1" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="10.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1471,25 +1653,31 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -1514,26 +1702,32 @@
       <c r="H2" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I2" s="1">
-        <v>15</v>
+      <c r="I2" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="1">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="1">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E3" s="2"/>
       <c r="G3" s="5" t="s">
         <v>53</v>
@@ -1541,26 +1735,32 @@
       <c r="H3" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I3" s="1">
-        <v>15</v>
+      <c r="I3" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K3" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="1">
-        <v>19</v>
-      </c>
-      <c r="N3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="1">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
       <c r="G4" s="5" t="s">
         <v>54</v>
@@ -1568,26 +1768,32 @@
       <c r="H4" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I4" s="1">
-        <v>15</v>
+      <c r="I4" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K4" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="1">
-        <v>19</v>
-      </c>
-      <c r="N4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="1">
+        <v>19</v>
+      </c>
+      <c r="P4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E5" s="2"/>
       <c r="G5" s="5" t="s">
         <v>55</v>
@@ -1595,26 +1801,32 @@
       <c r="H5" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I5" s="1">
-        <v>15</v>
+      <c r="I5" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K5" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="1">
-        <v>19</v>
-      </c>
-      <c r="N5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="1">
+        <v>19</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E6" s="2"/>
       <c r="G6" s="5" t="s">
         <v>56</v>
@@ -1622,26 +1834,32 @@
       <c r="H6" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I6" s="1">
-        <v>15</v>
+      <c r="I6" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K6" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="1">
-        <v>19</v>
-      </c>
-      <c r="N6" s="1" t="b">
+      <c r="N6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="1">
+        <v>19</v>
+      </c>
+      <c r="P6" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E7" s="2"/>
       <c r="G7" s="5" t="s">
         <v>57</v>
@@ -1649,26 +1867,32 @@
       <c r="H7" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I7" s="1">
-        <v>15</v>
+      <c r="I7" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K7" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="1">
-        <v>19</v>
-      </c>
-      <c r="N7" s="1" t="b">
+      <c r="N7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="1">
+        <v>19</v>
+      </c>
+      <c r="P7" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E8" s="2"/>
       <c r="G8" s="5" t="s">
         <v>58</v>
@@ -1676,28 +1900,34 @@
       <c r="H8" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I8" s="1">
-        <v>15</v>
+      <c r="I8" s="2">
+        <v>1E-4</v>
       </c>
       <c r="J8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K8" s="1" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="1">
-        <v>19</v>
-      </c>
-      <c r="N8" s="1" t="b">
+      <c r="N8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="1">
+        <v>19</v>
+      </c>
+      <c r="P8" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G9" s="2"/>
-      <c r="L9" s="3"/>
+      <c r="N9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputs/odias_params_new.xlsx
+++ b/inputs/odias_params_new.xlsx
@@ -8,26 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6C82B9-02B4-4DBC-B47E-0DD5462D075B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8192DB9E-3192-4554-8F3A-9C5B4A006110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="3" r:id="rId1"/>
+    <sheet name="ET017_NIT013_AIR16_DIST" sheetId="6" r:id="rId1"/>
     <sheet name="23JUL24_SWEEP_ON_AIR" sheetId="5" r:id="rId2"/>
     <sheet name="20JUL24_SWEEP_ON_NITROGEN" sheetId="4" r:id="rId3"/>
+    <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="93">
   <si>
     <t>fname</t>
   </si>
@@ -213,16 +225,115 @@
   </si>
   <si>
     <t>lambda_tk22</t>
+  </si>
+  <si>
+    <t>2024-07-26_143650_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-26_183046_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-30_160231_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-30_210108_SMPS</t>
+  </si>
+  <si>
+    <t>#A04747</t>
+  </si>
+  <si>
+    <t>#D8A25E</t>
+  </si>
+  <si>
+    <t>#EEDF7A</t>
+  </si>
+  <si>
+    <t>#071952</t>
+  </si>
+  <si>
+    <t>#088395</t>
+  </si>
+  <si>
+    <t>#37B7C3</t>
+  </si>
+  <si>
+    <t>#8E7AB5</t>
+  </si>
+  <si>
+    <t>#B784B7</t>
+  </si>
+  <si>
+    <t>#E493B3</t>
+  </si>
+  <si>
+    <t>#EEA5A6</t>
+  </si>
+  <si>
+    <t>#5F6F65</t>
+  </si>
+  <si>
+    <t>#808D7C</t>
+  </si>
+  <si>
+    <t>#9CA986</t>
+  </si>
+  <si>
+    <t>#C9DABF</t>
+  </si>
+  <si>
+    <t>2024-08-20_183004_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-20_230112_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-21_194931_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-22_013117_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-19_183232_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-19_224826_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-20_125844_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-20_174346_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-28_191006_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-28_234919_SMPS</t>
+  </si>
+  <si>
+    <t>#133E87</t>
+  </si>
+  <si>
+    <t>#608BC1</t>
+  </si>
+  <si>
+    <t>ET017_NIT013_AIR16_DIST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -545,31 +656,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20AA5E3-18D8-4B5E-AC08-AB63587E2B83}">
-  <dimension ref="A1:P17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE5B189-3795-4D9F-8470-DCFD19DE4918}">
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" style="1" customWidth="1"/>
     <col min="8" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,363 +728,568 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="4">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4">
+        <v>19</v>
+      </c>
+      <c r="P4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5">
+        <v>19</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <v>19</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7">
+        <v>19</v>
+      </c>
+      <c r="P7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8">
+        <v>19</v>
+      </c>
+      <c r="P8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9">
+        <v>19</v>
+      </c>
+      <c r="P9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10">
+        <v>19</v>
+      </c>
+      <c r="P10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11">
+        <v>19</v>
+      </c>
+      <c r="P11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>19</v>
+      </c>
+      <c r="P12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K13" s="1">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13">
+        <v>19</v>
+      </c>
+      <c r="P13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K14" s="1">
+        <v>15</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14">
+        <v>19</v>
+      </c>
+      <c r="P14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15">
+        <v>19</v>
+      </c>
+      <c r="P15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F16" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K2" s="1">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2">
-        <v>23</v>
-      </c>
-      <c r="P2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K3" s="1">
-        <v>15</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3">
-        <v>23</v>
-      </c>
-      <c r="P3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K4" s="1">
-        <v>15</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4">
-        <v>23</v>
-      </c>
-      <c r="P4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K5" s="1">
-        <v>15</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5">
-        <v>23</v>
-      </c>
-      <c r="P5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K6" s="1">
-        <v>15</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6">
-        <v>23</v>
-      </c>
-      <c r="P6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K7" s="1">
-        <v>15</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7">
-        <v>23</v>
-      </c>
-      <c r="P7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K8" s="1">
-        <v>15</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8">
-        <v>23</v>
-      </c>
-      <c r="P8" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K9" s="1">
-        <v>15</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9">
-        <v>19</v>
-      </c>
-      <c r="P9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K10" s="1">
-        <v>15</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10">
-        <v>19</v>
-      </c>
-      <c r="P10" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16">
+        <v>19</v>
+      </c>
+      <c r="P16" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K17" s="1">
+        <v>15</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17">
+        <v>19</v>
+      </c>
+      <c r="P17" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -984,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069A6CBD-9180-4207-8C39-A2C64C8EF28F}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,4 +2246,440 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20AA5E3-18D8-4B5E-AC08-AB63587E2B83}">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26" style="1" customWidth="1"/>
+    <col min="8" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2">
+        <v>23</v>
+      </c>
+      <c r="P2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3">
+        <v>23</v>
+      </c>
+      <c r="P3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4">
+        <v>23</v>
+      </c>
+      <c r="P4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5">
+        <v>23</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <v>23</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7">
+        <v>23</v>
+      </c>
+      <c r="P7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8">
+        <v>23</v>
+      </c>
+      <c r="P8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9">
+        <v>19</v>
+      </c>
+      <c r="P9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10">
+        <v>19</v>
+      </c>
+      <c r="P10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inputs/odias_params_new.xlsx
+++ b/inputs/odias_params_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8192DB9E-3192-4554-8F3A-9C5B4A006110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378BA74E-00AF-43E8-9957-1BA8A5D1344A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ET017_NIT013_AIR16_DIST" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="94">
   <si>
     <t>fname</t>
   </si>
@@ -224,9 +224,6 @@
     <t>lambda_tk2</t>
   </si>
   <si>
-    <t>lambda_tk22</t>
-  </si>
-  <si>
     <t>2024-07-26_143650_SMPS</t>
   </si>
   <si>
@@ -318,6 +315,12 @@
   </si>
   <si>
     <t>ET017_NIT013_AIR16_DIST</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>lambda_ed</t>
   </si>
 </sst>
 </file>
@@ -657,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE5B189-3795-4D9F-8470-DCFD19DE4918}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P17"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +681,7 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,7 +710,7 @@
         <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -727,13 +730,16 @@
       <c r="P1" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -754,10 +760,10 @@
         <v>1E-4</v>
       </c>
       <c r="I2" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J2" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K2" s="1">
         <v>15</v>
@@ -766,72 +772,78 @@
         <v>1000</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2">
-        <v>19</v>
-      </c>
-      <c r="P2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="5" t="s">
+      <c r="N3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K3" s="1">
-        <v>15</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="H4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3">
-        <v>19</v>
-      </c>
-      <c r="P3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K4" s="1">
-        <v>15</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="N4" s="6" t="s">
         <v>19</v>
       </c>
@@ -841,125 +853,137 @@
       <c r="P4" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5">
+        <v>19</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K5" s="1">
-        <v>15</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="H6" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5">
-        <v>19</v>
-      </c>
-      <c r="P5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G6" s="5" t="s">
+      <c r="N6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <v>19</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K6" s="1">
-        <v>15</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="H7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6">
-        <v>19</v>
-      </c>
-      <c r="P6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G7" s="5" t="s">
+      <c r="N7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7">
+        <v>19</v>
+      </c>
+      <c r="P7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K7" s="1">
-        <v>15</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="H8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7">
-        <v>19</v>
-      </c>
-      <c r="P7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K8" s="1">
-        <v>15</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="N8" s="6" t="s">
         <v>19</v>
       </c>
@@ -969,14 +993,13 @@
       <c r="P8" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
         <v>47</v>
       </c>
@@ -984,10 +1007,10 @@
         <v>1E-4</v>
       </c>
       <c r="I9" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J9" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K9" s="1">
         <v>15</v>
@@ -996,72 +1019,78 @@
         <v>1000</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9">
+        <v>19</v>
+      </c>
+      <c r="P9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9">
-        <v>19</v>
-      </c>
-      <c r="P9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G10" s="5" t="s">
+      <c r="N10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10">
+        <v>19</v>
+      </c>
+      <c r="P10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K10" s="1">
-        <v>15</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="H11" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10">
-        <v>19</v>
-      </c>
-      <c r="P10" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K11" s="1">
-        <v>15</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="N11" s="6" t="s">
         <v>19</v>
       </c>
@@ -1071,125 +1100,137 @@
       <c r="P11" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>19</v>
+      </c>
+      <c r="P12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K12" s="1">
-        <v>15</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M12" s="1" t="s">
+      <c r="H13" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12">
-        <v>19</v>
-      </c>
-      <c r="P12" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
+      <c r="N13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13">
+        <v>19</v>
+      </c>
+      <c r="P13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K13" s="1">
-        <v>15</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M13" s="1" t="s">
+      <c r="H14" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>15</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13">
-        <v>19</v>
-      </c>
-      <c r="P13" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
+      <c r="N14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14">
+        <v>19</v>
+      </c>
+      <c r="P14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K14" s="1">
-        <v>15</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M14" s="1" t="s">
+      <c r="H15" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14">
-        <v>19</v>
-      </c>
-      <c r="P14" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K15" s="1">
-        <v>15</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="N15" s="6" t="s">
         <v>19</v>
       </c>
@@ -1199,8 +1240,11 @@
       <c r="P15" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>25</v>
       </c>
@@ -1208,58 +1252,61 @@
         <v>26</v>
       </c>
       <c r="G16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16">
+        <v>19</v>
+      </c>
+      <c r="P16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K16" s="1">
-        <v>15</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M16" s="1" t="s">
+      <c r="H17" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K17" s="1">
+        <v>15</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16">
-        <v>19</v>
-      </c>
-      <c r="P16" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="K17" s="1">
-        <v>15</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="N17" s="6" t="s">
         <v>19</v>
       </c>
@@ -1269,20 +1316,23 @@
       <c r="P17" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="Q17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="7:17" x14ac:dyDescent="0.25">
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:17" x14ac:dyDescent="0.25">
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:17" x14ac:dyDescent="0.25">
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1298,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069A6CBD-9180-4207-8C39-A2C64C8EF28F}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,7 +1396,7 @@
         <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -1393,10 +1443,10 @@
         <v>1E-4</v>
       </c>
       <c r="I2" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J2" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K2" s="1">
         <v>15</v>
@@ -1426,10 +1476,10 @@
         <v>1E-4</v>
       </c>
       <c r="I3" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J3" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K3" s="1">
         <v>15</v>
@@ -1459,10 +1509,10 @@
         <v>1E-4</v>
       </c>
       <c r="I4" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J4" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K4" s="1">
         <v>15</v>
@@ -1492,10 +1542,10 @@
         <v>1E-4</v>
       </c>
       <c r="I5" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J5" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K5" s="1">
         <v>15</v>
@@ -1525,10 +1575,10 @@
         <v>1E-4</v>
       </c>
       <c r="I6" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J6" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K6" s="1">
         <v>15</v>
@@ -1558,10 +1608,10 @@
         <v>1E-4</v>
       </c>
       <c r="I7" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J7" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K7" s="1">
         <v>15</v>
@@ -1591,10 +1641,10 @@
         <v>1E-4</v>
       </c>
       <c r="I8" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J8" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K8" s="1">
         <v>15</v>
@@ -1624,10 +1674,10 @@
         <v>1E-4</v>
       </c>
       <c r="I9" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J9" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K9" s="1">
         <v>15</v>
@@ -1657,10 +1707,10 @@
         <v>1E-4</v>
       </c>
       <c r="I10" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J10" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K10" s="1">
         <v>15</v>
@@ -1690,10 +1740,10 @@
         <v>1E-4</v>
       </c>
       <c r="I11" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J11" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K11" s="1">
         <v>15</v>
@@ -1723,10 +1773,10 @@
         <v>1E-4</v>
       </c>
       <c r="I12" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J12" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K12" s="1">
         <v>15</v>
@@ -1756,10 +1806,10 @@
         <v>1E-4</v>
       </c>
       <c r="I13" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J13" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K13" s="1">
         <v>15</v>
@@ -1789,10 +1839,10 @@
         <v>1E-4</v>
       </c>
       <c r="I14" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J14" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K14" s="1">
         <v>15</v>
@@ -1822,10 +1872,10 @@
         <v>1E-4</v>
       </c>
       <c r="I15" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J15" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K15" s="1">
         <v>15</v>
@@ -1855,10 +1905,10 @@
         <v>1E-4</v>
       </c>
       <c r="I16" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J16" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K16" s="1">
         <v>15</v>
@@ -1888,10 +1938,10 @@
         <v>1E-4</v>
       </c>
       <c r="I17" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J17" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K17" s="1">
         <v>15</v>
@@ -1922,7 +1972,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1"/>
+      <selection activeCell="I2" sqref="I2:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,7 +2020,7 @@
         <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -2017,10 +2067,10 @@
         <v>1E-4</v>
       </c>
       <c r="I2" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J2" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K2" s="1">
         <v>15</v>
@@ -2050,10 +2100,10 @@
         <v>1E-4</v>
       </c>
       <c r="I3" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J3" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K3" s="1">
         <v>15</v>
@@ -2083,10 +2133,10 @@
         <v>1E-4</v>
       </c>
       <c r="I4" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J4" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K4" s="1">
         <v>15</v>
@@ -2116,10 +2166,10 @@
         <v>1E-4</v>
       </c>
       <c r="I5" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J5" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K5" s="1">
         <v>15</v>
@@ -2149,10 +2199,10 @@
         <v>1E-4</v>
       </c>
       <c r="I6" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J6" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K6" s="1">
         <v>15</v>
@@ -2182,10 +2232,10 @@
         <v>1E-4</v>
       </c>
       <c r="I7" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J7" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K7" s="1">
         <v>15</v>
@@ -2215,10 +2265,10 @@
         <v>1E-4</v>
       </c>
       <c r="I8" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J8" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K8" s="1">
         <v>15</v>
@@ -2253,7 +2303,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J2" sqref="J2:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2302,7 +2352,7 @@
         <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -2349,10 +2399,10 @@
         <v>1E-4</v>
       </c>
       <c r="I2" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J2" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K2" s="1">
         <v>15</v>
@@ -2382,10 +2432,10 @@
         <v>1E-4</v>
       </c>
       <c r="I3" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J3" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K3" s="1">
         <v>15</v>
@@ -2415,10 +2465,10 @@
         <v>1E-4</v>
       </c>
       <c r="I4" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J4" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K4" s="1">
         <v>15</v>
@@ -2448,10 +2498,10 @@
         <v>1E-4</v>
       </c>
       <c r="I5" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J5" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K5" s="1">
         <v>15</v>
@@ -2481,10 +2531,10 @@
         <v>1E-4</v>
       </c>
       <c r="I6" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J6" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K6" s="1">
         <v>15</v>
@@ -2514,10 +2564,10 @@
         <v>1E-4</v>
       </c>
       <c r="I7" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J7" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K7" s="1">
         <v>15</v>
@@ -2547,10 +2597,10 @@
         <v>1E-4</v>
       </c>
       <c r="I8" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J8" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K8" s="1">
         <v>15</v>
@@ -2580,10 +2630,10 @@
         <v>1E-4</v>
       </c>
       <c r="I9" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J9" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K9" s="1">
         <v>15</v>
@@ -2613,10 +2663,10 @@
         <v>1E-4</v>
       </c>
       <c r="I10" s="2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J10" s="2">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K10" s="1">
         <v>15</v>

--- a/inputs/odias_params_new.xlsx
+++ b/inputs/odias_params_new.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378BA74E-00AF-43E8-9957-1BA8A5D1344A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA790F1-3DF7-4921-8CAF-E9BEBBABE638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ET017_NIT013_AIR16_DIST" sheetId="6" r:id="rId1"/>
-    <sheet name="23JUL24_SWEEP_ON_AIR" sheetId="5" r:id="rId2"/>
-    <sheet name="20JUL24_SWEEP_ON_NITROGEN" sheetId="4" r:id="rId3"/>
-    <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="3" r:id="rId4"/>
+    <sheet name="19AUG24_LOWAGGLOM_TANDEM" sheetId="7" r:id="rId1"/>
+    <sheet name="ET017_NIT013_AIR16_DIST" sheetId="6" r:id="rId2"/>
+    <sheet name="23JUL24_SWEEP_ON_AIR" sheetId="5" r:id="rId3"/>
+    <sheet name="20JUL24_SWEEP_ON_NITROGEN" sheetId="4" r:id="rId4"/>
+    <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="116">
   <si>
     <t>fname</t>
   </si>
@@ -321,6 +322,72 @@
   </si>
   <si>
     <t>lambda_ed</t>
+  </si>
+  <si>
+    <t>2024-08-19_190018_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-19_195449_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-19_204309_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-19_211132_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-19_212526_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-19_214004_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-19_215841_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-19_221858_SMPS</t>
+  </si>
+  <si>
+    <t>19AUG24_LOWAGGLOM_TANDEM</t>
+  </si>
+  <si>
+    <t>#3f1300</t>
+  </si>
+  <si>
+    <t>#ffff81</t>
+  </si>
+  <si>
+    <t>#ffec6c</t>
+  </si>
+  <si>
+    <t>#ffda56</t>
+  </si>
+  <si>
+    <t>#ffc741</t>
+  </si>
+  <si>
+    <t>#ffb32e</t>
+  </si>
+  <si>
+    <t>#ff9d1b</t>
+  </si>
+  <si>
+    <t>#ff8709</t>
+  </si>
+  <si>
+    <t>#f77300</t>
+  </si>
+  <si>
+    <t>#e75f00</t>
+  </si>
+  <si>
+    <t>#d84b00</t>
+  </si>
+  <si>
+    <t>#bc3800</t>
+  </si>
+  <si>
+    <t>#7e2500</t>
   </si>
 </sst>
 </file>
@@ -659,10 +726,587 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F2A980-99F7-4378-B1A5-49E547FA6B9B}">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4">
+        <v>19</v>
+      </c>
+      <c r="P4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5">
+        <v>19</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <v>19</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7">
+        <v>19</v>
+      </c>
+      <c r="P7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8">
+        <v>19</v>
+      </c>
+      <c r="P8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9">
+        <v>19</v>
+      </c>
+      <c r="P9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10">
+        <v>19</v>
+      </c>
+      <c r="P10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11">
+        <v>19</v>
+      </c>
+      <c r="P11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>19</v>
+      </c>
+      <c r="P12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13">
+        <v>19</v>
+      </c>
+      <c r="P13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>15</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14">
+        <v>19</v>
+      </c>
+      <c r="P14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE5B189-3795-4D9F-8470-DCFD19DE4918}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -1344,7 +1988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069A6CBD-9180-4207-8C39-A2C64C8EF28F}">
   <dimension ref="A1:P17"/>
   <sheetViews>
@@ -1967,7 +2611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5E4505-E9C8-42A1-8718-1B515BF5CEF0}">
   <dimension ref="A1:P9"/>
   <sheetViews>
@@ -2298,7 +2942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20AA5E3-18D8-4B5E-AC08-AB63587E2B83}">
   <dimension ref="A1:P17"/>
   <sheetViews>

--- a/inputs/odias_params_new.xlsx
+++ b/inputs/odias_params_new.xlsx
@@ -8,16 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA790F1-3DF7-4921-8CAF-E9BEBBABE638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BB7D5A-BCA7-4E91-A431-E7CFB025BDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="19AUG24_LOWAGGLOM_TANDEM" sheetId="7" r:id="rId1"/>
-    <sheet name="ET017_NIT013_AIR16_DIST" sheetId="6" r:id="rId2"/>
-    <sheet name="23JUL24_SWEEP_ON_AIR" sheetId="5" r:id="rId3"/>
-    <sheet name="20JUL24_SWEEP_ON_NITROGEN" sheetId="4" r:id="rId4"/>
-    <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="3" r:id="rId5"/>
+    <sheet name="30JUL24_HIGHAGGLOM_TANDEM" sheetId="13" r:id="rId1"/>
+    <sheet name="26JUL24_LOWAGGLOM_TANDEM" sheetId="12" r:id="rId2"/>
+    <sheet name="28AUG24_HIGHAGGLOM_TANDEM" sheetId="11" r:id="rId3"/>
+    <sheet name="20AUG24_HIGHAGGLOM_TANDEM" sheetId="10" r:id="rId4"/>
+    <sheet name="20AUG24_LOWAGGLOM_TANDEM" sheetId="9" r:id="rId5"/>
+    <sheet name="21AUG24_HIGHAGGLOM_TANDEM" sheetId="8" r:id="rId6"/>
+    <sheet name="19AUG24_LOWAGGLOM_TANDEM" sheetId="7" r:id="rId7"/>
+    <sheet name="ET017_NIT013_AIR16_DIST" sheetId="6" r:id="rId8"/>
+    <sheet name="23JUL24_SWEEP_ON_AIR" sheetId="5" r:id="rId9"/>
+    <sheet name="20JUL24_SWEEP_ON_NITROGEN" sheetId="4" r:id="rId10"/>
+    <sheet name="13SEP24_SWEEP_ON_FUEL" sheetId="3" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="212">
   <si>
     <t>fname</t>
   </si>
@@ -388,6 +394,294 @@
   </si>
   <si>
     <t>#7e2500</t>
+  </si>
+  <si>
+    <t>21AUG24_HIGHAGGLOM_TANDEM</t>
+  </si>
+  <si>
+    <t>2024-08-21_204424_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-21_210317_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-21_211711_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-21_213243_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-21_223237_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-21_224530_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-21_230056_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-21_231418_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-21_232708_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-22_003114_SMPS</t>
+  </si>
+  <si>
+    <t>#000083</t>
+  </si>
+  <si>
+    <t>#00ff82</t>
+  </si>
+  <si>
+    <t>#15eb97</t>
+  </si>
+  <si>
+    <t>#2ad7ad</t>
+  </si>
+  <si>
+    <t>#3fc2c3</t>
+  </si>
+  <si>
+    <t>#2ac3d7</t>
+  </si>
+  <si>
+    <t>#15c3eb</t>
+  </si>
+  <si>
+    <t>#00c4ff</t>
+  </si>
+  <si>
+    <t>#0083ff</t>
+  </si>
+  <si>
+    <t>#0041ff</t>
+  </si>
+  <si>
+    <t>#0000ff</t>
+  </si>
+  <si>
+    <t>#0000d6</t>
+  </si>
+  <si>
+    <t>#0000ac</t>
+  </si>
+  <si>
+    <t>2024-08-21_221937_SMPS</t>
+  </si>
+  <si>
+    <t>20AUG24_LOWAGGLOM_TANDEM</t>
+  </si>
+  <si>
+    <t>#230000</t>
+  </si>
+  <si>
+    <t>#ffff7d</t>
+  </si>
+  <si>
+    <t>#ffee59</t>
+  </si>
+  <si>
+    <t>#ffdc36</t>
+  </si>
+  <si>
+    <t>#ffcb12</t>
+  </si>
+  <si>
+    <t>#ffb800</t>
+  </si>
+  <si>
+    <t>#ffa500</t>
+  </si>
+  <si>
+    <t>#ff9200</t>
+  </si>
+  <si>
+    <t>#ff8000</t>
+  </si>
+  <si>
+    <t>#d95b00</t>
+  </si>
+  <si>
+    <t>#b43700</t>
+  </si>
+  <si>
+    <t>#8e1200</t>
+  </si>
+  <si>
+    <t>#6a0000</t>
+  </si>
+  <si>
+    <t>#470000</t>
+  </si>
+  <si>
+    <t>2024-08-20_133417_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-20_141312_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-20_145039_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-20_150406_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-20_151851_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-20_153447_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-20_154754_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-20_164029_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-20_171355_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-20_192646_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-20_195259_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-20_202154_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-20_204107_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-20_205557_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-20_211607_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-20_213547_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-20_215032_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-20_220803_SMPS</t>
+  </si>
+  <si>
+    <t>20AUG24_HIGHAGGLOM_TANDEM</t>
+  </si>
+  <si>
+    <t>28AUG24_HIGHAGGLOM_TANDEM</t>
+  </si>
+  <si>
+    <t>2024-08-28_195111_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-28_201007_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-28_202342_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-28_205125_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-28_210441_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-28_212126_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-28_213934_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-28_215419_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-28_224609_SMPS</t>
+  </si>
+  <si>
+    <t>2024-08-28_230824_SMPS</t>
+  </si>
+  <si>
+    <t>30JUL24_HIGHAGGLOM_TANDEM</t>
+  </si>
+  <si>
+    <t>26JUL24_LOWAGGLOM_TANDEM</t>
+  </si>
+  <si>
+    <t>2024-07-26_145658_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-26_150958_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-26_152713_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-26_154158_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-26_155951_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-26_162402_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-26_163752_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-26_165312_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-26_172010_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-26_173932_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-26_175552_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-26_181354_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-30_200628_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-30_203242_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-30_162831_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-30_164345_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-30_165748_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-30_172910_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-30_174631_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-30_180205_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-30_183208_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-30_185826_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-30_191309_SMPS</t>
+  </si>
+  <si>
+    <t>2024-07-30_193044_SMPS</t>
   </si>
 </sst>
 </file>
@@ -726,11 +1020,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F2A980-99F7-4378-B1A5-49E547FA6B9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C757B42-67CE-4B78-B430-7A91DEAA5F92}">
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,6 +1033,8 @@
     <col min="2" max="2" width="34.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -796,7 +1092,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -810,8 +1106,8 @@
       <c r="F2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>94</v>
+      <c r="G2" t="s">
+        <v>200</v>
       </c>
       <c r="H2" s="2">
         <v>1E-4</v>
@@ -829,7 +1125,7 @@
         <v>1000</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>19</v>
@@ -848,8 +1144,8 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="5" t="s">
-        <v>94</v>
+      <c r="G3" t="s">
+        <v>200</v>
       </c>
       <c r="H3" s="2">
         <v>1E-4</v>
@@ -867,7 +1163,7 @@
         <v>1000</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>19</v>
@@ -887,7 +1183,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="5" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="H4" s="2">
         <v>1E-4</v>
@@ -905,7 +1201,7 @@
         <v>1000</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>19</v>
@@ -925,7 +1221,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="5" t="s">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="H5" s="2">
         <v>1E-4</v>
@@ -943,7 +1239,7 @@
         <v>1000</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>19</v>
@@ -963,7 +1259,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="5" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="H6" s="2">
         <v>1E-4</v>
@@ -981,7 +1277,7 @@
         <v>1000</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>19</v>
@@ -1001,7 +1297,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="5" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="H7" s="2">
         <v>1E-4</v>
@@ -1019,7 +1315,7 @@
         <v>1000</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>19</v>
@@ -1039,7 +1335,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="5" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="H8" s="2">
         <v>1E-4</v>
@@ -1057,7 +1353,7 @@
         <v>1000</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>19</v>
@@ -1077,7 +1373,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="H9" s="2">
         <v>1E-4</v>
@@ -1095,7 +1391,7 @@
         <v>1000</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>19</v>
@@ -1115,7 +1411,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="5" t="s">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="H10" s="2">
         <v>1E-4</v>
@@ -1133,7 +1429,7 @@
         <v>1000</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>19</v>
@@ -1153,7 +1449,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="5" t="s">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="H11" s="2">
         <v>1E-4</v>
@@ -1171,7 +1467,7 @@
         <v>1000</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>19</v>
@@ -1191,7 +1487,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="H12" s="2">
         <v>1E-4</v>
@@ -1209,7 +1505,7 @@
         <v>1000</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>19</v>
@@ -1229,7 +1525,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="H13" s="2">
         <v>1E-4</v>
@@ -1247,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>19</v>
@@ -1267,7 +1563,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="H14" s="2">
         <v>1E-4</v>
@@ -1285,7 +1581,7 @@
         <v>1000</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>19</v>
@@ -1302,1316 +1598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE5B189-3795-4D9F-8470-DCFD19DE4918}">
-  <dimension ref="A1:Q20"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K2" s="1">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2">
-        <v>19</v>
-      </c>
-      <c r="P2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K3" s="1">
-        <v>15</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3">
-        <v>19</v>
-      </c>
-      <c r="P3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K4" s="1">
-        <v>15</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4">
-        <v>19</v>
-      </c>
-      <c r="P4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K5" s="1">
-        <v>15</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5">
-        <v>19</v>
-      </c>
-      <c r="P5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K6" s="1">
-        <v>15</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6">
-        <v>19</v>
-      </c>
-      <c r="P6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K7" s="1">
-        <v>15</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7">
-        <v>19</v>
-      </c>
-      <c r="P7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K8" s="1">
-        <v>15</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8">
-        <v>19</v>
-      </c>
-      <c r="P8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K9" s="1">
-        <v>15</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9">
-        <v>19</v>
-      </c>
-      <c r="P9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K10" s="1">
-        <v>15</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10">
-        <v>19</v>
-      </c>
-      <c r="P10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K11" s="1">
-        <v>15</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11">
-        <v>19</v>
-      </c>
-      <c r="P11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K12" s="1">
-        <v>15</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12">
-        <v>19</v>
-      </c>
-      <c r="P12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K13" s="1">
-        <v>15</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13">
-        <v>19</v>
-      </c>
-      <c r="P13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K14" s="1">
-        <v>15</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14">
-        <v>19</v>
-      </c>
-      <c r="P14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K15" s="1">
-        <v>15</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15">
-        <v>19</v>
-      </c>
-      <c r="P15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K16" s="1">
-        <v>15</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16">
-        <v>19</v>
-      </c>
-      <c r="P16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K17" s="1">
-        <v>15</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O17">
-        <v>19</v>
-      </c>
-      <c r="P17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069A6CBD-9180-4207-8C39-A2C64C8EF28F}">
-  <dimension ref="A1:P17"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="10.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K2" s="1">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2">
-        <v>19</v>
-      </c>
-      <c r="P2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E3" s="2"/>
-      <c r="G3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K3" s="1">
-        <v>15</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3">
-        <v>19</v>
-      </c>
-      <c r="P3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E4" s="2"/>
-      <c r="G4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K4" s="1">
-        <v>15</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4">
-        <v>19</v>
-      </c>
-      <c r="P4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E5" s="2"/>
-      <c r="G5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K5" s="1">
-        <v>15</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5">
-        <v>19</v>
-      </c>
-      <c r="P5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E6" s="2"/>
-      <c r="G6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K6" s="1">
-        <v>15</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6">
-        <v>19</v>
-      </c>
-      <c r="P6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E7" s="2"/>
-      <c r="G7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K7" s="1">
-        <v>15</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7">
-        <v>19</v>
-      </c>
-      <c r="P7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E8" s="2"/>
-      <c r="G8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K8" s="1">
-        <v>15</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8">
-        <v>19</v>
-      </c>
-      <c r="P8" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E9" s="2"/>
-      <c r="G9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K9" s="1">
-        <v>15</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9">
-        <v>19</v>
-      </c>
-      <c r="P9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E10" s="2"/>
-      <c r="G10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K10" s="1">
-        <v>15</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10">
-        <v>19</v>
-      </c>
-      <c r="P10" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E11" s="2"/>
-      <c r="G11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K11" s="1">
-        <v>15</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11">
-        <v>19</v>
-      </c>
-      <c r="P11" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E12" s="2"/>
-      <c r="G12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K12" s="1">
-        <v>15</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12">
-        <v>19</v>
-      </c>
-      <c r="P12" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E13" s="2"/>
-      <c r="G13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K13" s="1">
-        <v>15</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13">
-        <v>19</v>
-      </c>
-      <c r="P13" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E14" s="2"/>
-      <c r="G14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K14" s="1">
-        <v>15</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14">
-        <v>19</v>
-      </c>
-      <c r="P14" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E15" s="2"/>
-      <c r="G15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K15" s="1">
-        <v>15</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15">
-        <v>19</v>
-      </c>
-      <c r="P15" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E16" s="2"/>
-      <c r="G16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K16" s="1">
-        <v>15</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16">
-        <v>19</v>
-      </c>
-      <c r="P16" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="2"/>
-      <c r="G17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K17" s="1">
-        <v>15</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17">
-        <v>19</v>
-      </c>
-      <c r="P17" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5E4505-E9C8-42A1-8718-1B515BF5CEF0}">
   <dimension ref="A1:P9"/>
   <sheetViews>
@@ -2942,7 +1929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20AA5E3-18D8-4B5E-AC08-AB63587E2B83}">
   <dimension ref="A1:P17"/>
   <sheetViews>
@@ -3376,4 +2363,4793 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5155C0A2-4019-4528-8B1F-5147B306CFCF}">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4">
+        <v>19</v>
+      </c>
+      <c r="P4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5">
+        <v>19</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <v>19</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7">
+        <v>19</v>
+      </c>
+      <c r="P7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8">
+        <v>19</v>
+      </c>
+      <c r="P8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9">
+        <v>19</v>
+      </c>
+      <c r="P9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10">
+        <v>19</v>
+      </c>
+      <c r="P10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11">
+        <v>19</v>
+      </c>
+      <c r="P11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>19</v>
+      </c>
+      <c r="P12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" t="s">
+        <v>199</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13">
+        <v>19</v>
+      </c>
+      <c r="P13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="6"/>
+      <c r="P14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C47B65-DC64-4762-AC01-F458A5D6819D}">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4">
+        <v>19</v>
+      </c>
+      <c r="P4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5">
+        <v>19</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <v>19</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7">
+        <v>19</v>
+      </c>
+      <c r="P7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8">
+        <v>19</v>
+      </c>
+      <c r="P8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9">
+        <v>19</v>
+      </c>
+      <c r="P9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10">
+        <v>19</v>
+      </c>
+      <c r="P10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11">
+        <v>19</v>
+      </c>
+      <c r="P11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>19</v>
+      </c>
+      <c r="P12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13">
+        <v>19</v>
+      </c>
+      <c r="P13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>15</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14">
+        <v>19</v>
+      </c>
+      <c r="P14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3A47B7-5619-4AD8-9D1D-DCF8ECFDEA14}">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4">
+        <v>19</v>
+      </c>
+      <c r="P4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5">
+        <v>19</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <v>19</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7">
+        <v>19</v>
+      </c>
+      <c r="P7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8">
+        <v>19</v>
+      </c>
+      <c r="P8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9">
+        <v>19</v>
+      </c>
+      <c r="P9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10">
+        <v>19</v>
+      </c>
+      <c r="P10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11">
+        <v>19</v>
+      </c>
+      <c r="P11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>19</v>
+      </c>
+      <c r="P12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13">
+        <v>19</v>
+      </c>
+      <c r="P13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>15</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14">
+        <v>19</v>
+      </c>
+      <c r="P14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AAC8C4-BFB5-4107-AD2D-75CC275963B2}">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4">
+        <v>19</v>
+      </c>
+      <c r="P4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5">
+        <v>19</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <v>19</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7">
+        <v>19</v>
+      </c>
+      <c r="P7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8">
+        <v>19</v>
+      </c>
+      <c r="P8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9">
+        <v>19</v>
+      </c>
+      <c r="P9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10">
+        <v>19</v>
+      </c>
+      <c r="P10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11">
+        <v>19</v>
+      </c>
+      <c r="P11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>19</v>
+      </c>
+      <c r="P12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13">
+        <v>19</v>
+      </c>
+      <c r="P13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>15</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14">
+        <v>19</v>
+      </c>
+      <c r="P14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15">
+        <v>19</v>
+      </c>
+      <c r="P15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13789820-1DD8-4FD1-AC5F-644F6AE28AED}">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4">
+        <v>19</v>
+      </c>
+      <c r="P4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5">
+        <v>19</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <v>19</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7">
+        <v>19</v>
+      </c>
+      <c r="P7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8">
+        <v>19</v>
+      </c>
+      <c r="P8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9">
+        <v>19</v>
+      </c>
+      <c r="P9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10">
+        <v>19</v>
+      </c>
+      <c r="P10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11">
+        <v>19</v>
+      </c>
+      <c r="P11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>19</v>
+      </c>
+      <c r="P12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13">
+        <v>19</v>
+      </c>
+      <c r="P13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>15</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14">
+        <v>19</v>
+      </c>
+      <c r="P14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F2A980-99F7-4378-B1A5-49E547FA6B9B}">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4">
+        <v>19</v>
+      </c>
+      <c r="P4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5">
+        <v>19</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <v>19</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7">
+        <v>19</v>
+      </c>
+      <c r="P7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8">
+        <v>19</v>
+      </c>
+      <c r="P8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9">
+        <v>19</v>
+      </c>
+      <c r="P9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10">
+        <v>19</v>
+      </c>
+      <c r="P10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11">
+        <v>19</v>
+      </c>
+      <c r="P11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>19</v>
+      </c>
+      <c r="P12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13">
+        <v>19</v>
+      </c>
+      <c r="P13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>15</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14">
+        <v>19</v>
+      </c>
+      <c r="P14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE5B189-3795-4D9F-8470-DCFD19DE4918}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" style="1" customWidth="1"/>
+    <col min="8" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4">
+        <v>19</v>
+      </c>
+      <c r="P4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5">
+        <v>19</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <v>19</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7">
+        <v>19</v>
+      </c>
+      <c r="P7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8">
+        <v>19</v>
+      </c>
+      <c r="P8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9">
+        <v>19</v>
+      </c>
+      <c r="P9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10">
+        <v>19</v>
+      </c>
+      <c r="P10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11">
+        <v>19</v>
+      </c>
+      <c r="P11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>19</v>
+      </c>
+      <c r="P12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13">
+        <v>19</v>
+      </c>
+      <c r="P13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>15</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14">
+        <v>19</v>
+      </c>
+      <c r="P14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15">
+        <v>19</v>
+      </c>
+      <c r="P15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16">
+        <v>19</v>
+      </c>
+      <c r="P16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K17" s="1">
+        <v>15</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17">
+        <v>19</v>
+      </c>
+      <c r="P17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069A6CBD-9180-4207-8C39-A2C64C8EF28F}">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="10.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+      <c r="G3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+      <c r="G4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4">
+        <v>19</v>
+      </c>
+      <c r="P4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+      <c r="G5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <v>19</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+      <c r="G6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <v>19</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+      <c r="G7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7">
+        <v>19</v>
+      </c>
+      <c r="P7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+      <c r="G8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8">
+        <v>19</v>
+      </c>
+      <c r="P8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+      <c r="G9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9">
+        <v>19</v>
+      </c>
+      <c r="P9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+      <c r="G10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10">
+        <v>19</v>
+      </c>
+      <c r="P10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+      <c r="G11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11">
+        <v>19</v>
+      </c>
+      <c r="P11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+      <c r="G12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>19</v>
+      </c>
+      <c r="P12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+      <c r="G13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13">
+        <v>19</v>
+      </c>
+      <c r="P13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E14" s="2"/>
+      <c r="G14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>15</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14">
+        <v>19</v>
+      </c>
+      <c r="P14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E15" s="2"/>
+      <c r="G15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15">
+        <v>19</v>
+      </c>
+      <c r="P15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
+      <c r="G16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16">
+        <v>19</v>
+      </c>
+      <c r="P16" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
+      <c r="G17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K17" s="1">
+        <v>15</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17">
+        <v>19</v>
+      </c>
+      <c r="P17" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inputs/odias_params_new.xlsx
+++ b/inputs/odias_params_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BB7D5A-BCA7-4E91-A431-E7CFB025BDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DCFFB2-832C-4391-B986-E6920761F2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="30JUL24_HIGHAGGLOM_TANDEM" sheetId="13" r:id="rId1"/>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C757B42-67CE-4B78-B430-7A91DEAA5F92}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P2:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3505,8 +3505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3A47B7-5619-4AD8-9D1D-DCF8ECFDEA14}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P2:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
